--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2008.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2008.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162736885121128</v>
+        <v>1.048025250434875</v>
       </c>
       <c r="B1">
-        <v>2.31974981283627</v>
+        <v>3.099463701248169</v>
       </c>
       <c r="C1">
-        <v>7.964121073598704</v>
+        <v>6.689461708068848</v>
       </c>
       <c r="D1">
-        <v>2.423775515296957</v>
+        <v>1.872572541236877</v>
       </c>
       <c r="E1">
-        <v>1.221032235646149</v>
+        <v>1.307311415672302</v>
       </c>
     </row>
   </sheetData>
